--- a/NhapHangV2.API/Template/MainOrderTemplate.xlsx
+++ b/NhapHangV2.API/Template/MainOrderTemplate.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Mona\NhapHangCore\NhapHangV2.API\Template\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Mona\nhaphangv2.monamedia.net\NhapHangV2.API\Template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{161F497D-2FAD-422B-B6D4-7BD7FDFEE944}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24B56C27-F238-4AE9-A3DD-C8D5821F250B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{1D38FE5C-49B4-48D4-A36F-2FEB701DF5D3}"/>
   </bookViews>
@@ -177,9 +177,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="[$-1010000]d/m/yyyy;@"/>
-  </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -222,24 +219,27 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -558,106 +558,106 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{136EF265-C280-412F-9E01-F311B30BE158}">
   <dimension ref="A1:W2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="R1" sqref="R1:W1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="22" style="1" customWidth="1"/>
     <col min="2" max="2" width="29.77734375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="25.109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="29.44140625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="24.77734375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="23.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="29.5546875" style="1" customWidth="1"/>
-    <col min="8" max="8" width="28.77734375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="31.77734375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="31.33203125" style="1" customWidth="1"/>
-    <col min="11" max="11" width="26.109375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="23.21875" style="2" customWidth="1"/>
-    <col min="13" max="13" width="20.88671875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="25.109375" style="7" customWidth="1"/>
+    <col min="4" max="4" width="29.44140625" style="7" customWidth="1"/>
+    <col min="5" max="5" width="24.77734375" style="7" customWidth="1"/>
+    <col min="6" max="6" width="23.6640625" style="7" customWidth="1"/>
+    <col min="7" max="7" width="29.5546875" style="7" customWidth="1"/>
+    <col min="8" max="8" width="28.77734375" style="7" customWidth="1"/>
+    <col min="9" max="9" width="31.77734375" style="7" customWidth="1"/>
+    <col min="10" max="10" width="31.33203125" style="7" customWidth="1"/>
+    <col min="11" max="11" width="26.109375" style="7" customWidth="1"/>
+    <col min="12" max="12" width="23.21875" style="7" customWidth="1"/>
+    <col min="13" max="13" width="20.88671875" style="7" customWidth="1"/>
     <col min="14" max="14" width="19.109375" style="1" customWidth="1"/>
     <col min="15" max="15" width="22.33203125" style="1" customWidth="1"/>
     <col min="16" max="16" width="16.44140625" style="1" customWidth="1"/>
     <col min="17" max="17" width="15.33203125" style="1" customWidth="1"/>
-    <col min="18" max="18" width="16.6640625" style="6" customWidth="1"/>
-    <col min="19" max="19" width="14.44140625" style="6" customWidth="1"/>
-    <col min="20" max="20" width="16.6640625" style="6" customWidth="1"/>
-    <col min="21" max="21" width="17.6640625" style="6" customWidth="1"/>
-    <col min="22" max="22" width="21" style="6" customWidth="1"/>
-    <col min="23" max="23" width="20.77734375" style="6" customWidth="1"/>
+    <col min="18" max="18" width="16.6640625" style="5" customWidth="1"/>
+    <col min="19" max="19" width="14.44140625" style="5" customWidth="1"/>
+    <col min="20" max="20" width="16.6640625" style="5" customWidth="1"/>
+    <col min="21" max="21" width="17.6640625" style="5" customWidth="1"/>
+    <col min="22" max="22" width="21" style="5" customWidth="1"/>
+    <col min="23" max="23" width="20.77734375" style="5" customWidth="1"/>
     <col min="24" max="16384" width="8.77734375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:23" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="J1" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="K1" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="L1" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="M1" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="N1" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="O1" s="4" t="s">
+      <c r="O1" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="P1" s="4" t="s">
+      <c r="P1" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="Q1" s="4" t="s">
+      <c r="Q1" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="R1" s="5" t="s">
+      <c r="R1" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="S1" s="5" t="s">
+      <c r="S1" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="T1" s="5" t="s">
+      <c r="T1" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="U1" s="5" t="s">
+      <c r="U1" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="V1" s="5" t="s">
+      <c r="V1" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="W1" s="5" t="s">
+      <c r="W1" s="4" t="s">
         <v>31</v>
       </c>
     </row>
@@ -668,37 +668,37 @@
       <c r="B2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="G2" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="H2" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="I2" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="J2" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="K2" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="L2" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="M2" s="7" t="s">
         <v>37</v>
       </c>
       <c r="N2" s="1" t="s">
@@ -713,22 +713,22 @@
       <c r="Q2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="R2" s="6" t="s">
+      <c r="R2" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="S2" s="6" t="s">
+      <c r="S2" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="T2" s="6" t="s">
+      <c r="T2" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="U2" s="6" t="s">
+      <c r="U2" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="V2" s="6" t="s">
+      <c r="V2" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="W2" s="6" t="s">
+      <c r="W2" s="5" t="s">
         <v>44</v>
       </c>
     </row>
